--- a/Code/Results/Cases/Case_5_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_118/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.069295225394699</v>
+        <v>1.092547051789358</v>
       </c>
       <c r="D2">
-        <v>1.083134481599872</v>
+        <v>1.095061633883408</v>
       </c>
       <c r="E2">
-        <v>1.075254068298476</v>
+        <v>1.094370488614895</v>
       </c>
       <c r="F2">
-        <v>1.088679560500013</v>
+        <v>1.105850107209808</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.087167535982354</v>
+        <v>1.074865683611512</v>
       </c>
       <c r="J2">
-        <v>1.089583948547386</v>
+        <v>1.097367287335862</v>
       </c>
       <c r="K2">
-        <v>1.093545509072225</v>
+        <v>1.097697394051782</v>
       </c>
       <c r="L2">
-        <v>1.085755861210861</v>
+        <v>1.097008004927288</v>
       </c>
       <c r="M2">
-        <v>1.099027691134927</v>
+        <v>1.108458761183434</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.076177392136942</v>
+        <v>1.093903339520336</v>
       </c>
       <c r="D3">
-        <v>1.088815567251891</v>
+        <v>1.096186668334008</v>
       </c>
       <c r="E3">
-        <v>1.081317182206041</v>
+        <v>1.095583711910466</v>
       </c>
       <c r="F3">
-        <v>1.094839304379417</v>
+        <v>1.107093062574427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.090364247401683</v>
+        <v>1.075402019186792</v>
       </c>
       <c r="J3">
-        <v>1.094786800384324</v>
+        <v>1.098387544671602</v>
       </c>
       <c r="K3">
-        <v>1.098425461583394</v>
+        <v>1.098642669306875</v>
       </c>
       <c r="L3">
-        <v>1.09100549246822</v>
+        <v>1.098041134009828</v>
       </c>
       <c r="M3">
-        <v>1.104387152748011</v>
+        <v>1.109523644434391</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.080508151979392</v>
+        <v>1.094779930220307</v>
       </c>
       <c r="D4">
-        <v>1.092392364472716</v>
+        <v>1.096913706579136</v>
       </c>
       <c r="E4">
-        <v>1.085132888550593</v>
+        <v>1.096367522697387</v>
       </c>
       <c r="F4">
-        <v>1.098718714458064</v>
+        <v>1.107896475731043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.092364506975659</v>
+        <v>1.075747285865877</v>
       </c>
       <c r="J4">
-        <v>1.098054853169284</v>
+        <v>1.099046155134508</v>
       </c>
       <c r="K4">
-        <v>1.101490310451919</v>
+        <v>1.099252796655645</v>
       </c>
       <c r="L4">
-        <v>1.094301947786089</v>
+        <v>1.098707835193247</v>
       </c>
       <c r="M4">
-        <v>1.107755615562564</v>
+        <v>1.110211258595818</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.08230096723038</v>
+        <v>1.095148209904217</v>
       </c>
       <c r="D5">
-        <v>1.093873441971009</v>
+        <v>1.097219133103954</v>
       </c>
       <c r="E5">
-        <v>1.086712520412487</v>
+        <v>1.096696747282983</v>
       </c>
       <c r="F5">
-        <v>1.100325406790177</v>
+        <v>1.108234028007825</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.093189801335227</v>
+        <v>1.075892012335356</v>
       </c>
       <c r="J5">
-        <v>1.099406269331977</v>
+        <v>1.099322664036074</v>
       </c>
       <c r="K5">
-        <v>1.102757596282346</v>
+        <v>1.099508931349951</v>
       </c>
       <c r="L5">
-        <v>1.095664869212835</v>
+        <v>1.09898768861921</v>
       </c>
       <c r="M5">
-        <v>1.109149035406447</v>
+        <v>1.110499991235379</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.082600397504729</v>
+        <v>1.09521003180222</v>
       </c>
       <c r="D6">
-        <v>1.094120827568113</v>
+        <v>1.097270402735816</v>
       </c>
       <c r="E6">
-        <v>1.08697634610486</v>
+        <v>1.096752008680719</v>
       </c>
       <c r="F6">
-        <v>1.100593792372081</v>
+        <v>1.108290692748271</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.093327476146649</v>
+        <v>1.075916287764306</v>
       </c>
       <c r="J6">
-        <v>1.099631891174682</v>
+        <v>1.099369069448313</v>
       </c>
       <c r="K6">
-        <v>1.102969166200931</v>
+        <v>1.099551916307365</v>
       </c>
       <c r="L6">
-        <v>1.095892397652911</v>
+        <v>1.09903465226605</v>
       </c>
       <c r="M6">
-        <v>1.109381697986261</v>
+        <v>1.110548450860427</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.080532215163807</v>
+        <v>1.094784852124898</v>
       </c>
       <c r="D7">
-        <v>1.092412242076138</v>
+        <v>1.096917788565024</v>
       </c>
       <c r="E7">
-        <v>1.085154090312903</v>
+        <v>1.096371922944853</v>
       </c>
       <c r="F7">
-        <v>1.098740276708891</v>
+        <v>1.107900986912526</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.092375595042913</v>
+        <v>1.075749221370078</v>
       </c>
       <c r="J7">
-        <v>1.098072997745325</v>
+        <v>1.099049851313097</v>
       </c>
       <c r="K7">
-        <v>1.101507325875881</v>
+        <v>1.099256220561724</v>
       </c>
       <c r="L7">
-        <v>1.094320247790764</v>
+        <v>1.098711576284521</v>
       </c>
       <c r="M7">
-        <v>1.107774322196855</v>
+        <v>1.110215117988419</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.071647370453169</v>
+        <v>1.0930056292286</v>
       </c>
       <c r="D8">
-        <v>1.085075701193613</v>
+        <v>1.095442039989702</v>
       </c>
       <c r="E8">
-        <v>1.077326175806171</v>
+        <v>1.094780759327748</v>
       </c>
       <c r="F8">
-        <v>1.090784079102666</v>
+        <v>1.10627035056697</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.088262456409576</v>
+        <v>1.075047310197882</v>
       </c>
       <c r="J8">
-        <v>1.091363379827546</v>
+        <v>1.097712414109123</v>
       </c>
       <c r="K8">
-        <v>1.095214580197242</v>
+        <v>1.09801717275362</v>
       </c>
       <c r="L8">
-        <v>1.087551495652</v>
+        <v>1.097357531201517</v>
       </c>
       <c r="M8">
-        <v>1.100860249533011</v>
+        <v>1.10881894304293</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.054980291879038</v>
+        <v>1.089862402254349</v>
       </c>
       <c r="D9">
-        <v>1.071331090931711</v>
+        <v>1.092834277997748</v>
       </c>
       <c r="E9">
-        <v>1.06264723522549</v>
+        <v>1.091967358149236</v>
       </c>
       <c r="F9">
-        <v>1.075888236776526</v>
+        <v>1.103390189093311</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.08045669226642</v>
+        <v>1.0737967395714</v>
       </c>
       <c r="J9">
-        <v>1.078730512345377</v>
+        <v>1.095343539088142</v>
       </c>
       <c r="K9">
-        <v>1.083363955494024</v>
+        <v>1.095821958852634</v>
       </c>
       <c r="L9">
-        <v>1.074799566387399</v>
+        <v>1.094957557973353</v>
       </c>
       <c r="M9">
-        <v>1.087859377340508</v>
+        <v>1.106347542973436</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.0430759964715</v>
+        <v>1.087761235864152</v>
       </c>
       <c r="D10">
-        <v>1.06153120918722</v>
+        <v>1.091090648293197</v>
       </c>
       <c r="E10">
-        <v>1.052170692621894</v>
+        <v>1.090085071870444</v>
       </c>
       <c r="F10">
-        <v>1.065273454632927</v>
+        <v>1.101465289332866</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.074822914357404</v>
+        <v>1.072953673272288</v>
       </c>
       <c r="J10">
-        <v>1.069678967390853</v>
+        <v>1.093755902151086</v>
       </c>
       <c r="K10">
-        <v>1.074871783468673</v>
+        <v>1.094350310977555</v>
       </c>
       <c r="L10">
-        <v>1.065657818037107</v>
+        <v>1.093347944010544</v>
       </c>
       <c r="M10">
-        <v>1.078556358775562</v>
+        <v>1.104692213637824</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.037704088902199</v>
+        <v>1.086849993315687</v>
       </c>
       <c r="D11">
-        <v>1.057114201229557</v>
+        <v>1.090334375030107</v>
       </c>
       <c r="E11">
-        <v>1.047445937856866</v>
+        <v>1.089268378543</v>
       </c>
       <c r="F11">
-        <v>1.060490405820024</v>
+        <v>1.100630595982354</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.072267366515457</v>
+        <v>1.072586368100142</v>
       </c>
       <c r="J11">
-        <v>1.065588306210901</v>
+        <v>1.093066397959228</v>
       </c>
       <c r="K11">
-        <v>1.071033826298214</v>
+        <v>1.093711087300125</v>
       </c>
       <c r="L11">
-        <v>1.061525325929775</v>
+        <v>1.092648625495525</v>
       </c>
       <c r="M11">
-        <v>1.074355122021358</v>
+        <v>1.103973553804275</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.035673251179619</v>
+        <v>1.08651129754461</v>
       </c>
       <c r="D12">
-        <v>1.055445267132857</v>
+        <v>1.090053266462169</v>
       </c>
       <c r="E12">
-        <v>1.045660283997145</v>
+        <v>1.088964769250033</v>
       </c>
       <c r="F12">
-        <v>1.058683339623681</v>
+        <v>1.100320368829791</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.071299316850773</v>
+        <v>1.072449593642548</v>
       </c>
       <c r="J12">
-        <v>1.064040996251524</v>
+        <v>1.092809973427753</v>
       </c>
       <c r="K12">
-        <v>1.069582104614576</v>
+        <v>1.093473348106866</v>
       </c>
       <c r="L12">
-        <v>1.059962042864652</v>
+        <v>1.092388510457846</v>
       </c>
       <c r="M12">
-        <v>1.072766464880769</v>
+        <v>1.103706322940539</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.036110527038781</v>
+        <v>1.086583958973783</v>
       </c>
       <c r="D13">
-        <v>1.055804575783938</v>
+        <v>1.090113574096144</v>
       </c>
       <c r="E13">
-        <v>1.04604474179056</v>
+        <v>1.089029906004497</v>
       </c>
       <c r="F13">
-        <v>1.059072379447133</v>
+        <v>1.100386922049509</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.071507841425626</v>
+        <v>1.072478947699801</v>
       </c>
       <c r="J13">
-        <v>1.064374196838238</v>
+        <v>1.092864991549394</v>
       </c>
       <c r="K13">
-        <v>1.069894720689152</v>
+        <v>1.09352435774962</v>
       </c>
       <c r="L13">
-        <v>1.06029868974738</v>
+        <v>1.092444322247127</v>
       </c>
       <c r="M13">
-        <v>1.073108547357886</v>
+        <v>1.103763657999669</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.037536960390627</v>
+        <v>1.086822001133554</v>
       </c>
       <c r="D14">
-        <v>1.056976836628467</v>
+        <v>1.090311142510542</v>
       </c>
       <c r="E14">
-        <v>1.047298975501909</v>
+        <v>1.089243287294791</v>
       </c>
       <c r="F14">
-        <v>1.060341668570028</v>
+        <v>1.100604956308065</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.072187739308722</v>
+        <v>1.072575069251658</v>
       </c>
       <c r="J14">
-        <v>1.065460986500579</v>
+        <v>1.09304520821746</v>
       </c>
       <c r="K14">
-        <v>1.07091437189145</v>
+        <v>1.093691441909856</v>
       </c>
       <c r="L14">
-        <v>1.061396694869206</v>
+        <v>1.092627131615336</v>
       </c>
       <c r="M14">
-        <v>1.07422439026804</v>
+        <v>1.103951470330992</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.038411042374916</v>
+        <v>1.086968637475198</v>
       </c>
       <c r="D15">
-        <v>1.057695290931279</v>
+        <v>1.090432844965479</v>
       </c>
       <c r="E15">
-        <v>1.048067610630423</v>
+        <v>1.089374724871778</v>
       </c>
       <c r="F15">
-        <v>1.061119611905626</v>
+        <v>1.100739269770677</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.072604111424968</v>
+        <v>1.072634247652136</v>
       </c>
       <c r="J15">
-        <v>1.066126834570857</v>
+        <v>1.093156204181447</v>
       </c>
       <c r="K15">
-        <v>1.071539086701115</v>
+        <v>1.09379434769675</v>
       </c>
       <c r="L15">
-        <v>1.062069394898598</v>
+        <v>1.092739719053432</v>
       </c>
       <c r="M15">
-        <v>1.074908101968729</v>
+        <v>1.10406714933047</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.043427700538494</v>
+        <v>1.087821681539685</v>
       </c>
       <c r="D16">
-        <v>1.061820513547356</v>
+        <v>1.091140812542665</v>
       </c>
       <c r="E16">
-        <v>1.052480094413818</v>
+        <v>1.090139237907869</v>
       </c>
       <c r="F16">
-        <v>1.065586758634936</v>
+        <v>1.101520659515507</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.074989958888618</v>
+        <v>1.072978002436917</v>
       </c>
       <c r="J16">
-        <v>1.069946666655638</v>
+        <v>1.09380161876813</v>
       </c>
       <c r="K16">
-        <v>1.075122944763875</v>
+        <v>1.094392691869209</v>
       </c>
       <c r="L16">
-        <v>1.065928233504654</v>
+        <v>1.093394305670273</v>
       </c>
       <c r="M16">
-        <v>1.078831359284223</v>
+        <v>1.104739868496713</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.046514451394962</v>
+        <v>1.088356388289691</v>
       </c>
       <c r="D17">
-        <v>1.064360217650744</v>
+        <v>1.091584558910454</v>
       </c>
       <c r="E17">
-        <v>1.055195911831621</v>
+        <v>1.090618351215837</v>
       </c>
       <c r="F17">
-        <v>1.068337287292265</v>
+        <v>1.102010480304639</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.076454542960984</v>
+        <v>1.073193025974294</v>
       </c>
       <c r="J17">
-        <v>1.072295465036839</v>
+        <v>1.094205919135191</v>
       </c>
       <c r="K17">
-        <v>1.077326629946241</v>
+        <v>1.094767481634902</v>
       </c>
       <c r="L17">
-        <v>1.068300744609798</v>
+        <v>1.093804279423579</v>
       </c>
       <c r="M17">
-        <v>1.08124456775562</v>
+        <v>1.105161337961808</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.048294145329561</v>
+        <v>1.088668136726491</v>
       </c>
       <c r="D18">
-        <v>1.065824994529593</v>
+        <v>1.09184326639853</v>
       </c>
       <c r="E18">
-        <v>1.056762003812763</v>
+        <v>1.090897650949365</v>
       </c>
       <c r="F18">
-        <v>1.069923776295582</v>
+        <v>1.102296069114782</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.077297709644369</v>
+        <v>1.073318228469438</v>
       </c>
       <c r="J18">
-        <v>1.073649108798878</v>
+        <v>1.094441543503309</v>
       </c>
       <c r="K18">
-        <v>1.078596633179581</v>
+        <v>1.094985898389372</v>
       </c>
       <c r="L18">
-        <v>1.069667953452544</v>
+        <v>1.094043184233238</v>
       </c>
       <c r="M18">
-        <v>1.082635619689282</v>
+        <v>1.105406991789388</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.048897535133359</v>
+        <v>1.088774411831224</v>
       </c>
       <c r="D19">
-        <v>1.06632169393663</v>
+        <v>1.091931458354769</v>
       </c>
       <c r="E19">
-        <v>1.057293015600089</v>
+        <v>1.090992858129789</v>
       </c>
       <c r="F19">
-        <v>1.070461768316591</v>
+        <v>1.102393428092579</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.077583363819722</v>
+        <v>1.073360882540902</v>
       </c>
       <c r="J19">
-        <v>1.074107950174715</v>
+        <v>1.094521852009796</v>
       </c>
       <c r="K19">
-        <v>1.079027121004885</v>
+        <v>1.09506034045078</v>
       </c>
       <c r="L19">
-        <v>1.070131375574499</v>
+        <v>1.094124606416493</v>
       </c>
       <c r="M19">
-        <v>1.083107189570141</v>
+        <v>1.105490722629401</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.046185438497574</v>
+        <v>1.0882990335264</v>
       </c>
       <c r="D20">
-        <v>1.064089462335913</v>
+        <v>1.091536961802311</v>
       </c>
       <c r="E20">
-        <v>1.054906408269972</v>
+        <v>1.090566963370952</v>
       </c>
       <c r="F20">
-        <v>1.068044043933514</v>
+        <v>1.10195793913837</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.076298564488091</v>
+        <v>1.073169978458848</v>
       </c>
       <c r="J20">
-        <v>1.072045169055138</v>
+        <v>1.094162561962379</v>
       </c>
       <c r="K20">
-        <v>1.07709179863944</v>
+        <v>1.094727290106424</v>
       </c>
       <c r="L20">
-        <v>1.068047932137633</v>
+        <v>1.093760316525503</v>
       </c>
       <c r="M20">
-        <v>1.080987377996884</v>
+        <v>1.105116137154266</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.037117914922438</v>
+        <v>1.086751909762752</v>
       </c>
       <c r="D21">
-        <v>1.056632433933763</v>
+        <v>1.090252968953618</v>
       </c>
       <c r="E21">
-        <v>1.046930502003145</v>
+        <v>1.089180458848225</v>
       </c>
       <c r="F21">
-        <v>1.059968754935451</v>
+        <v>1.100540755794961</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.07198805720594</v>
+        <v>1.072546773283906</v>
       </c>
       <c r="J21">
-        <v>1.06514174129047</v>
+        <v>1.092992147548364</v>
       </c>
       <c r="K21">
-        <v>1.07061484846354</v>
+        <v>1.093642248187398</v>
       </c>
       <c r="L21">
-        <v>1.06107415915753</v>
+        <v>1.092573308705631</v>
       </c>
       <c r="M21">
-        <v>1.073896597356351</v>
+        <v>1.103896172283291</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.031209917115119</v>
+        <v>1.085777897531628</v>
       </c>
       <c r="D22">
-        <v>1.051779124983262</v>
+        <v>1.089444541357288</v>
       </c>
       <c r="E22">
-        <v>1.041736903910082</v>
+        <v>1.088307241991662</v>
       </c>
       <c r="F22">
-        <v>1.054714066743895</v>
+        <v>1.099648644371218</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.069168271351016</v>
+        <v>1.072152965434763</v>
       </c>
       <c r="J22">
-        <v>1.060638875050498</v>
+        <v>1.092254454344442</v>
       </c>
       <c r="K22">
-        <v>1.066390178871134</v>
+        <v>1.092958283861301</v>
       </c>
       <c r="L22">
-        <v>1.056524535694622</v>
+        <v>1.091824921922994</v>
       </c>
       <c r="M22">
-        <v>1.069274335094815</v>
+        <v>1.103127459954871</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.034362503962704</v>
+        <v>1.086294362569606</v>
       </c>
       <c r="D23">
-        <v>1.054368371160614</v>
+        <v>1.089873212668504</v>
       </c>
       <c r="E23">
-        <v>1.044507946197629</v>
+        <v>1.088770291443004</v>
       </c>
       <c r="F23">
-        <v>1.057517359674391</v>
+        <v>1.100121672717036</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.070673980459657</v>
+        <v>1.072361918425668</v>
       </c>
       <c r="J23">
-        <v>1.063042099619801</v>
+        <v>1.092645692262647</v>
       </c>
       <c r="K23">
-        <v>1.068644919539993</v>
+        <v>1.093321034030585</v>
       </c>
       <c r="L23">
-        <v>1.058952793418131</v>
+        <v>1.092221853495737</v>
       </c>
       <c r="M23">
-        <v>1.071741012916302</v>
+        <v>1.103535128883843</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.04633416919503</v>
+        <v>1.088324950097977</v>
       </c>
       <c r="D24">
-        <v>1.064211856113404</v>
+        <v>1.091558469264249</v>
       </c>
       <c r="E24">
-        <v>1.055037277912478</v>
+        <v>1.090590183816961</v>
       </c>
       <c r="F24">
-        <v>1.068176602964606</v>
+        <v>1.101981680586032</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.07636907864834</v>
+        <v>1.073180393309649</v>
       </c>
       <c r="J24">
-        <v>1.072158317468059</v>
+        <v>1.094182153811536</v>
       </c>
       <c r="K24">
-        <v>1.077197956147239</v>
+        <v>1.094745451520452</v>
       </c>
       <c r="L24">
-        <v>1.06816221846535</v>
+        <v>1.093780182164645</v>
       </c>
       <c r="M24">
-        <v>1.081103641907362</v>
+        <v>1.105136562016215</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.059419876267644</v>
+        <v>1.090675981354333</v>
       </c>
       <c r="D25">
-        <v>1.074989675840356</v>
+        <v>1.093509334200746</v>
       </c>
       <c r="E25">
-        <v>1.066556229344508</v>
+        <v>1.092695849543978</v>
       </c>
       <c r="F25">
-        <v>1.079852201009061</v>
+        <v>1.104135606906983</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.082546089750779</v>
+        <v>1.0741216807572</v>
       </c>
       <c r="J25">
-        <v>1.082100611820362</v>
+        <v>1.095957411762091</v>
       </c>
       <c r="K25">
-        <v>1.086525614906689</v>
+        <v>1.096390899718364</v>
       </c>
       <c r="L25">
-        <v>1.078202289995134</v>
+        <v>1.095579688785507</v>
       </c>
       <c r="M25">
-        <v>1.091325623708445</v>
+        <v>1.106987804904661</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_118/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.092547051789358</v>
+        <v>1.069295225394698</v>
       </c>
       <c r="D2">
-        <v>1.095061633883408</v>
+        <v>1.083134481599872</v>
       </c>
       <c r="E2">
-        <v>1.094370488614895</v>
+        <v>1.075254068298475</v>
       </c>
       <c r="F2">
-        <v>1.105850107209808</v>
+        <v>1.088679560500012</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.074865683611512</v>
+        <v>1.087167535982353</v>
       </c>
       <c r="J2">
-        <v>1.097367287335862</v>
+        <v>1.089583948547385</v>
       </c>
       <c r="K2">
-        <v>1.097697394051782</v>
+        <v>1.093545509072223</v>
       </c>
       <c r="L2">
-        <v>1.097008004927288</v>
+        <v>1.08575586121086</v>
       </c>
       <c r="M2">
-        <v>1.108458761183434</v>
+        <v>1.099027691134927</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.093903339520336</v>
+        <v>1.076177392136943</v>
       </c>
       <c r="D3">
-        <v>1.096186668334008</v>
+        <v>1.088815567251892</v>
       </c>
       <c r="E3">
-        <v>1.095583711910466</v>
+        <v>1.081317182206042</v>
       </c>
       <c r="F3">
-        <v>1.107093062574427</v>
+        <v>1.094839304379418</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.075402019186792</v>
+        <v>1.090364247401683</v>
       </c>
       <c r="J3">
-        <v>1.098387544671602</v>
+        <v>1.094786800384325</v>
       </c>
       <c r="K3">
-        <v>1.098642669306875</v>
+        <v>1.098425461583395</v>
       </c>
       <c r="L3">
-        <v>1.098041134009828</v>
+        <v>1.091005492468221</v>
       </c>
       <c r="M3">
-        <v>1.109523644434391</v>
+        <v>1.104387152748011</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.094779930220307</v>
+        <v>1.080508151979392</v>
       </c>
       <c r="D4">
-        <v>1.096913706579136</v>
+        <v>1.092392364472716</v>
       </c>
       <c r="E4">
-        <v>1.096367522697387</v>
+        <v>1.085132888550593</v>
       </c>
       <c r="F4">
-        <v>1.107896475731043</v>
+        <v>1.098718714458064</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.075747285865877</v>
+        <v>1.092364506975659</v>
       </c>
       <c r="J4">
-        <v>1.099046155134508</v>
+        <v>1.098054853169284</v>
       </c>
       <c r="K4">
-        <v>1.099252796655645</v>
+        <v>1.101490310451919</v>
       </c>
       <c r="L4">
-        <v>1.098707835193247</v>
+        <v>1.094301947786088</v>
       </c>
       <c r="M4">
-        <v>1.110211258595818</v>
+        <v>1.107755615562563</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.095148209904217</v>
+        <v>1.08230096723038</v>
       </c>
       <c r="D5">
-        <v>1.097219133103954</v>
+        <v>1.093873441971009</v>
       </c>
       <c r="E5">
-        <v>1.096696747282983</v>
+        <v>1.086712520412487</v>
       </c>
       <c r="F5">
-        <v>1.108234028007825</v>
+        <v>1.100325406790177</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.075892012335356</v>
+        <v>1.093189801335227</v>
       </c>
       <c r="J5">
-        <v>1.099322664036074</v>
+        <v>1.099406269331977</v>
       </c>
       <c r="K5">
-        <v>1.099508931349951</v>
+        <v>1.102757596282346</v>
       </c>
       <c r="L5">
-        <v>1.09898768861921</v>
+        <v>1.095664869212834</v>
       </c>
       <c r="M5">
-        <v>1.110499991235379</v>
+        <v>1.109149035406447</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.09521003180222</v>
+        <v>1.082600397504726</v>
       </c>
       <c r="D6">
-        <v>1.097270402735816</v>
+        <v>1.09412082756811</v>
       </c>
       <c r="E6">
-        <v>1.096752008680719</v>
+        <v>1.086976346104857</v>
       </c>
       <c r="F6">
-        <v>1.108290692748271</v>
+        <v>1.100593792372077</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.075916287764306</v>
+        <v>1.093327476146647</v>
       </c>
       <c r="J6">
-        <v>1.099369069448313</v>
+        <v>1.099631891174679</v>
       </c>
       <c r="K6">
-        <v>1.099551916307365</v>
+        <v>1.102969166200928</v>
       </c>
       <c r="L6">
-        <v>1.09903465226605</v>
+        <v>1.095892397652908</v>
       </c>
       <c r="M6">
-        <v>1.110548450860427</v>
+        <v>1.109381697986258</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.094784852124898</v>
+        <v>1.080532215163805</v>
       </c>
       <c r="D7">
-        <v>1.096917788565024</v>
+        <v>1.092412242076137</v>
       </c>
       <c r="E7">
-        <v>1.096371922944853</v>
+        <v>1.085154090312902</v>
       </c>
       <c r="F7">
-        <v>1.107900986912526</v>
+        <v>1.09874027670889</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.075749221370078</v>
+        <v>1.092375595042913</v>
       </c>
       <c r="J7">
-        <v>1.099049851313097</v>
+        <v>1.098072997745323</v>
       </c>
       <c r="K7">
-        <v>1.099256220561724</v>
+        <v>1.10150732587588</v>
       </c>
       <c r="L7">
-        <v>1.098711576284521</v>
+        <v>1.094320247790763</v>
       </c>
       <c r="M7">
-        <v>1.110215117988419</v>
+        <v>1.107774322196854</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0930056292286</v>
+        <v>1.071647370453169</v>
       </c>
       <c r="D8">
-        <v>1.095442039989702</v>
+        <v>1.085075701193613</v>
       </c>
       <c r="E8">
-        <v>1.094780759327748</v>
+        <v>1.077326175806171</v>
       </c>
       <c r="F8">
-        <v>1.10627035056697</v>
+        <v>1.090784079102666</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.075047310197882</v>
+        <v>1.088262456409576</v>
       </c>
       <c r="J8">
-        <v>1.097712414109123</v>
+        <v>1.091363379827546</v>
       </c>
       <c r="K8">
-        <v>1.09801717275362</v>
+        <v>1.095214580197243</v>
       </c>
       <c r="L8">
-        <v>1.097357531201517</v>
+        <v>1.087551495652001</v>
       </c>
       <c r="M8">
-        <v>1.10881894304293</v>
+        <v>1.100860249533012</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.089862402254349</v>
+        <v>1.054980291879035</v>
       </c>
       <c r="D9">
-        <v>1.092834277997748</v>
+        <v>1.071331090931709</v>
       </c>
       <c r="E9">
-        <v>1.091967358149236</v>
+        <v>1.062647235225487</v>
       </c>
       <c r="F9">
-        <v>1.103390189093311</v>
+        <v>1.075888236776523</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0737967395714</v>
+        <v>1.080456692266418</v>
       </c>
       <c r="J9">
-        <v>1.095343539088142</v>
+        <v>1.078730512345374</v>
       </c>
       <c r="K9">
-        <v>1.095821958852634</v>
+        <v>1.083363955494021</v>
       </c>
       <c r="L9">
-        <v>1.094957557973353</v>
+        <v>1.074799566387397</v>
       </c>
       <c r="M9">
-        <v>1.106347542973436</v>
+        <v>1.087859377340505</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.087761235864152</v>
+        <v>1.043075996471501</v>
       </c>
       <c r="D10">
-        <v>1.091090648293197</v>
+        <v>1.06153120918722</v>
       </c>
       <c r="E10">
-        <v>1.090085071870444</v>
+        <v>1.052170692621895</v>
       </c>
       <c r="F10">
-        <v>1.101465289332866</v>
+        <v>1.065273454632927</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.072953673272288</v>
+        <v>1.074822914357404</v>
       </c>
       <c r="J10">
-        <v>1.093755902151086</v>
+        <v>1.069678967390854</v>
       </c>
       <c r="K10">
-        <v>1.094350310977555</v>
+        <v>1.074871783468673</v>
       </c>
       <c r="L10">
-        <v>1.093347944010544</v>
+        <v>1.065657818037107</v>
       </c>
       <c r="M10">
-        <v>1.104692213637824</v>
+        <v>1.078556358775563</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.086849993315687</v>
+        <v>1.037704088902198</v>
       </c>
       <c r="D11">
-        <v>1.090334375030107</v>
+        <v>1.057114201229557</v>
       </c>
       <c r="E11">
-        <v>1.089268378543</v>
+        <v>1.047445937856865</v>
       </c>
       <c r="F11">
-        <v>1.100630595982354</v>
+        <v>1.060490405820024</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.072586368100142</v>
+        <v>1.072267366515456</v>
       </c>
       <c r="J11">
-        <v>1.093066397959228</v>
+        <v>1.065588306210901</v>
       </c>
       <c r="K11">
-        <v>1.093711087300125</v>
+        <v>1.071033826298213</v>
       </c>
       <c r="L11">
-        <v>1.092648625495525</v>
+        <v>1.061525325929774</v>
       </c>
       <c r="M11">
-        <v>1.103973553804275</v>
+        <v>1.074355122021358</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.08651129754461</v>
+        <v>1.035673251179618</v>
       </c>
       <c r="D12">
-        <v>1.090053266462169</v>
+        <v>1.055445267132856</v>
       </c>
       <c r="E12">
-        <v>1.088964769250033</v>
+        <v>1.045660283997144</v>
       </c>
       <c r="F12">
-        <v>1.100320368829791</v>
+        <v>1.05868333962368</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.072449593642548</v>
+        <v>1.071299316850772</v>
       </c>
       <c r="J12">
-        <v>1.092809973427753</v>
+        <v>1.064040996251523</v>
       </c>
       <c r="K12">
-        <v>1.093473348106866</v>
+        <v>1.069582104614575</v>
       </c>
       <c r="L12">
-        <v>1.092388510457846</v>
+        <v>1.059962042864651</v>
       </c>
       <c r="M12">
-        <v>1.103706322940539</v>
+        <v>1.072766464880768</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.086583958973783</v>
+        <v>1.036110527038782</v>
       </c>
       <c r="D13">
-        <v>1.090113574096144</v>
+        <v>1.05580457578394</v>
       </c>
       <c r="E13">
-        <v>1.089029906004497</v>
+        <v>1.046044741790561</v>
       </c>
       <c r="F13">
-        <v>1.100386922049509</v>
+        <v>1.059072379447135</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.072478947699801</v>
+        <v>1.071507841425627</v>
       </c>
       <c r="J13">
-        <v>1.092864991549394</v>
+        <v>1.064374196838239</v>
       </c>
       <c r="K13">
-        <v>1.09352435774962</v>
+        <v>1.069894720689154</v>
       </c>
       <c r="L13">
-        <v>1.092444322247127</v>
+        <v>1.060298689747382</v>
       </c>
       <c r="M13">
-        <v>1.103763657999669</v>
+        <v>1.073108547357887</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.086822001133554</v>
+        <v>1.037536960390625</v>
       </c>
       <c r="D14">
-        <v>1.090311142510542</v>
+        <v>1.056976836628466</v>
       </c>
       <c r="E14">
-        <v>1.089243287294791</v>
+        <v>1.047298975501908</v>
       </c>
       <c r="F14">
-        <v>1.100604956308065</v>
+        <v>1.060341668570027</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.072575069251658</v>
+        <v>1.072187739308721</v>
       </c>
       <c r="J14">
-        <v>1.09304520821746</v>
+        <v>1.065460986500578</v>
       </c>
       <c r="K14">
-        <v>1.093691441909856</v>
+        <v>1.070914371891448</v>
       </c>
       <c r="L14">
-        <v>1.092627131615336</v>
+        <v>1.061396694869204</v>
       </c>
       <c r="M14">
-        <v>1.103951470330992</v>
+        <v>1.074224390268039</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.086968637475198</v>
+        <v>1.038411042374916</v>
       </c>
       <c r="D15">
-        <v>1.090432844965479</v>
+        <v>1.057695290931279</v>
       </c>
       <c r="E15">
-        <v>1.089374724871778</v>
+        <v>1.048067610630423</v>
       </c>
       <c r="F15">
-        <v>1.100739269770677</v>
+        <v>1.061119611905627</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.072634247652136</v>
+        <v>1.072604111424968</v>
       </c>
       <c r="J15">
-        <v>1.093156204181447</v>
+        <v>1.066126834570857</v>
       </c>
       <c r="K15">
-        <v>1.09379434769675</v>
+        <v>1.071539086701115</v>
       </c>
       <c r="L15">
-        <v>1.092739719053432</v>
+        <v>1.062069394898599</v>
       </c>
       <c r="M15">
-        <v>1.10406714933047</v>
+        <v>1.07490810196873</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.087821681539685</v>
+        <v>1.043427700538495</v>
       </c>
       <c r="D16">
-        <v>1.091140812542665</v>
+        <v>1.061820513547357</v>
       </c>
       <c r="E16">
-        <v>1.090139237907869</v>
+        <v>1.052480094413819</v>
       </c>
       <c r="F16">
-        <v>1.101520659515507</v>
+        <v>1.065586758634937</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.072978002436917</v>
+        <v>1.074989958888618</v>
       </c>
       <c r="J16">
-        <v>1.09380161876813</v>
+        <v>1.069946666655639</v>
       </c>
       <c r="K16">
-        <v>1.094392691869209</v>
+        <v>1.075122944763876</v>
       </c>
       <c r="L16">
-        <v>1.093394305670273</v>
+        <v>1.065928233504655</v>
       </c>
       <c r="M16">
-        <v>1.104739868496713</v>
+        <v>1.078831359284224</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.088356388289691</v>
+        <v>1.04651445139496</v>
       </c>
       <c r="D17">
-        <v>1.091584558910454</v>
+        <v>1.064360217650742</v>
       </c>
       <c r="E17">
-        <v>1.090618351215837</v>
+        <v>1.055195911831618</v>
       </c>
       <c r="F17">
-        <v>1.102010480304639</v>
+        <v>1.068337287292262</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.073193025974294</v>
+        <v>1.076454542960982</v>
       </c>
       <c r="J17">
-        <v>1.094205919135191</v>
+        <v>1.072295465036837</v>
       </c>
       <c r="K17">
-        <v>1.094767481634902</v>
+        <v>1.077326629946239</v>
       </c>
       <c r="L17">
-        <v>1.093804279423579</v>
+        <v>1.068300744609796</v>
       </c>
       <c r="M17">
-        <v>1.105161337961808</v>
+        <v>1.081244567755617</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.088668136726491</v>
+        <v>1.048294145329559</v>
       </c>
       <c r="D18">
-        <v>1.09184326639853</v>
+        <v>1.065824994529591</v>
       </c>
       <c r="E18">
-        <v>1.090897650949365</v>
+        <v>1.056762003812761</v>
       </c>
       <c r="F18">
-        <v>1.102296069114782</v>
+        <v>1.06992377629558</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.073318228469438</v>
+        <v>1.077297709644368</v>
       </c>
       <c r="J18">
-        <v>1.094441543503309</v>
+        <v>1.073649108798876</v>
       </c>
       <c r="K18">
-        <v>1.094985898389372</v>
+        <v>1.078596633179579</v>
       </c>
       <c r="L18">
-        <v>1.094043184233238</v>
+        <v>1.069667953452542</v>
       </c>
       <c r="M18">
-        <v>1.105406991789388</v>
+        <v>1.082635619689281</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.088774411831224</v>
+        <v>1.048897535133359</v>
       </c>
       <c r="D19">
-        <v>1.091931458354769</v>
+        <v>1.066321693936631</v>
       </c>
       <c r="E19">
-        <v>1.090992858129789</v>
+        <v>1.057293015600089</v>
       </c>
       <c r="F19">
-        <v>1.102393428092579</v>
+        <v>1.070461768316591</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.073360882540902</v>
+        <v>1.077583363819723</v>
       </c>
       <c r="J19">
-        <v>1.094521852009796</v>
+        <v>1.074107950174715</v>
       </c>
       <c r="K19">
-        <v>1.09506034045078</v>
+        <v>1.079027121004886</v>
       </c>
       <c r="L19">
-        <v>1.094124606416493</v>
+        <v>1.070131375574499</v>
       </c>
       <c r="M19">
-        <v>1.105490722629401</v>
+        <v>1.083107189570141</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0882990335264</v>
+        <v>1.046185438497572</v>
       </c>
       <c r="D20">
-        <v>1.091536961802311</v>
+        <v>1.06408946233591</v>
       </c>
       <c r="E20">
-        <v>1.090566963370952</v>
+        <v>1.05490640826997</v>
       </c>
       <c r="F20">
-        <v>1.10195793913837</v>
+        <v>1.068044043933511</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.073169978458848</v>
+        <v>1.076298564488089</v>
       </c>
       <c r="J20">
-        <v>1.094162561962379</v>
+        <v>1.072045169055135</v>
       </c>
       <c r="K20">
-        <v>1.094727290106424</v>
+        <v>1.077091798639438</v>
       </c>
       <c r="L20">
-        <v>1.093760316525503</v>
+        <v>1.06804793213763</v>
       </c>
       <c r="M20">
-        <v>1.105116137154266</v>
+        <v>1.080987377996881</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.086751909762752</v>
+        <v>1.037117914922437</v>
       </c>
       <c r="D21">
-        <v>1.090252968953618</v>
+        <v>1.056632433933763</v>
       </c>
       <c r="E21">
-        <v>1.089180458848225</v>
+        <v>1.046930502003144</v>
       </c>
       <c r="F21">
-        <v>1.100540755794961</v>
+        <v>1.05996875493545</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.072546773283906</v>
+        <v>1.07198805720594</v>
       </c>
       <c r="J21">
-        <v>1.092992147548364</v>
+        <v>1.06514174129047</v>
       </c>
       <c r="K21">
-        <v>1.093642248187398</v>
+        <v>1.070614848463539</v>
       </c>
       <c r="L21">
-        <v>1.092573308705631</v>
+        <v>1.061074159157529</v>
       </c>
       <c r="M21">
-        <v>1.103896172283291</v>
+        <v>1.073896597356351</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.085777897531628</v>
+        <v>1.031209917115118</v>
       </c>
       <c r="D22">
-        <v>1.089444541357288</v>
+        <v>1.051779124983261</v>
       </c>
       <c r="E22">
-        <v>1.088307241991662</v>
+        <v>1.041736903910082</v>
       </c>
       <c r="F22">
-        <v>1.099648644371218</v>
+        <v>1.054714066743894</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.072152965434763</v>
+        <v>1.069168271351016</v>
       </c>
       <c r="J22">
-        <v>1.092254454344442</v>
+        <v>1.060638875050497</v>
       </c>
       <c r="K22">
-        <v>1.092958283861301</v>
+        <v>1.066390178871133</v>
       </c>
       <c r="L22">
-        <v>1.091824921922994</v>
+        <v>1.056524535694622</v>
       </c>
       <c r="M22">
-        <v>1.103127459954871</v>
+        <v>1.069274335094814</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.086294362569606</v>
+        <v>1.034362503962703</v>
       </c>
       <c r="D23">
-        <v>1.089873212668504</v>
+        <v>1.054368371160612</v>
       </c>
       <c r="E23">
-        <v>1.088770291443004</v>
+        <v>1.044507946197627</v>
       </c>
       <c r="F23">
-        <v>1.100121672717036</v>
+        <v>1.057517359674389</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.072361918425668</v>
+        <v>1.070673980459655</v>
       </c>
       <c r="J23">
-        <v>1.092645692262647</v>
+        <v>1.0630420996198</v>
       </c>
       <c r="K23">
-        <v>1.093321034030585</v>
+        <v>1.068644919539992</v>
       </c>
       <c r="L23">
-        <v>1.092221853495737</v>
+        <v>1.05895279341813</v>
       </c>
       <c r="M23">
-        <v>1.103535128883843</v>
+        <v>1.071741012916301</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.088324950097977</v>
+        <v>1.04633416919503</v>
       </c>
       <c r="D24">
-        <v>1.091558469264249</v>
+        <v>1.064211856113403</v>
       </c>
       <c r="E24">
-        <v>1.090590183816961</v>
+        <v>1.055037277912477</v>
       </c>
       <c r="F24">
-        <v>1.101981680586032</v>
+        <v>1.068176602964606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.073180393309649</v>
+        <v>1.07636907864834</v>
       </c>
       <c r="J24">
-        <v>1.094182153811536</v>
+        <v>1.072158317468058</v>
       </c>
       <c r="K24">
-        <v>1.094745451520452</v>
+        <v>1.077197956147239</v>
       </c>
       <c r="L24">
-        <v>1.093780182164645</v>
+        <v>1.068162218465349</v>
       </c>
       <c r="M24">
-        <v>1.105136562016215</v>
+        <v>1.081103641907361</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.090675981354333</v>
+        <v>1.059419876267645</v>
       </c>
       <c r="D25">
-        <v>1.093509334200746</v>
+        <v>1.074989675840357</v>
       </c>
       <c r="E25">
-        <v>1.092695849543978</v>
+        <v>1.06655622934451</v>
       </c>
       <c r="F25">
-        <v>1.104135606906983</v>
+        <v>1.079852201009062</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0741216807572</v>
+        <v>1.082546089750779</v>
       </c>
       <c r="J25">
-        <v>1.095957411762091</v>
+        <v>1.082100611820363</v>
       </c>
       <c r="K25">
-        <v>1.096390899718364</v>
+        <v>1.086525614906691</v>
       </c>
       <c r="L25">
-        <v>1.095579688785507</v>
+        <v>1.078202289995135</v>
       </c>
       <c r="M25">
-        <v>1.106987804904661</v>
+        <v>1.091325623708446</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
